--- a/classfiers/nano/multinomialNB/nearmiss/nano-multinomialNB-nearmiss-results.xlsx
+++ b/classfiers/nano/multinomialNB/nearmiss/nano-multinomialNB-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7749999999999999</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7737272155876807</v>
+        <v>0.788888888888889</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7749999999999999</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7381578947368421</v>
+        <v>0.6842105263157894</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7291666666666667</v>
+        <v>0.6761363636363635</v>
       </c>
       <c r="E3" t="n">
-        <v>0.738157894736842</v>
+        <v>0.6842105263157894</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7381578947368421</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7291666666666667</v>
+        <v>0.8380681818181819</v>
       </c>
       <c r="E4" t="n">
-        <v>0.738157894736842</v>
+        <v>0.8421052631578947</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9736842105263157</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9222591362126246</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.9736842105263158</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7223684210526315</v>
+        <v>0.6812865497076023</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.6636363636363637</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7223684210526315</v>
+        <v>0.6812865497076023</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8546062633019155</v>
+        <v>0.859337154073996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7789473684210526</v>
+        <v>0.7941520467836257</v>
       </c>
       <c r="D7" t="n">
-        <v>0.77308615924895</v>
+        <v>0.7879405541905542</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7789473684210526</v>
+        <v>0.7941520467836257</v>
       </c>
     </row>
   </sheetData>
